--- a/data/trans_bre/DC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DC-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 11,29</t>
+          <t>-0,67; 11,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 17,37</t>
+          <t>6,23; 17,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,86</t>
+          <t>-3,45; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 21,58</t>
+          <t>11,65; 21,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 79,6</t>
+          <t>-4,32; 77,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,43; 257,75</t>
+          <t>62,16; 294,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 67,63</t>
+          <t>-26,91; 71,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,19; 138,49</t>
+          <t>56,45; 139,57</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 23,53</t>
+          <t>12,39; 23,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 14,93</t>
+          <t>4,72; 15,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,88</t>
+          <t>6,65; 15,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 21,79</t>
+          <t>10,01; 21,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,54; 266,08</t>
+          <t>87,63; 262,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 201,25</t>
+          <t>40,28; 207,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,87; 399,51</t>
+          <t>75,02; 376,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,6; 131,18</t>
+          <t>44,46; 127,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 19,15</t>
+          <t>2,86; 18,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 17,39</t>
+          <t>5,45; 17,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 23,44</t>
+          <t>9,41; 23,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 45,21</t>
+          <t>17,46; 43,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 103,78</t>
+          <t>12,44; 97,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,69; 178,33</t>
+          <t>39,36; 171,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,19; 314,23</t>
+          <t>87,49; 312,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,39; 718,48</t>
+          <t>66,13; 697,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,4</t>
+          <t>4,11; 12,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 13,12</t>
+          <t>5,14; 12,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,83</t>
+          <t>3,38; 10,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 50,41</t>
+          <t>10,51; 50,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 60,89</t>
+          <t>18,23; 62,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,03; 110,51</t>
+          <t>36,77; 106,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,33; 106,8</t>
+          <t>28,18; 108,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,44; 224,22</t>
+          <t>41,65; 221,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,22</t>
+          <t>2,05; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,44</t>
+          <t>13,87; 22,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,77</t>
+          <t>5,47; 13,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 37,91</t>
+          <t>16,94; 37,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 79,88</t>
+          <t>9,1; 82,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>125,36; 307,67</t>
+          <t>114,41; 297,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 122,09</t>
+          <t>35,31; 121,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,33; 164,5</t>
+          <t>62,91; 162,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,34; 27,95</t>
+          <t>22,42; 28,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,57; 26,14</t>
+          <t>18,43; 25,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,03</t>
+          <t>13,51; 19,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 31,52</t>
+          <t>17,76; 31,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>536,42; 2806,0</t>
+          <t>536,74; 2698,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>294,41; 1980,72</t>
+          <t>289,98; 1712,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>468,43; 5494,22</t>
+          <t>462,48; 5163,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,18; 538,8</t>
+          <t>94,32; 534,27</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 12,36</t>
+          <t>8,42; 12,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,62; 15,42</t>
+          <t>11,67; 15,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,63</t>
+          <t>7,2; 10,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 33,29</t>
+          <t>17,88; 33,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,3; 74,32</t>
+          <t>45,72; 74,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>105,37; 162,09</t>
+          <t>103,39; 157,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,37; 118,87</t>
+          <t>69,99; 121,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,39; 188,56</t>
+          <t>81,54; 188,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DC-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
